--- a/data/lessons/BLM002/table2.xlsx
+++ b/data/lessons/BLM002/table2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,16 +435,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Değerlendirmeler</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr"/>
-      <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TOPLAM</t>
         </is>
@@ -457,21 +451,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,30 +469,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Öd1</t>
+          <t>Quiz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Öd2</t>
+          <t>Vize</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quiz</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>TOPLAM</t>
         </is>
@@ -521,16 +499,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -541,19 +513,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -567,16 +533,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -587,18 +547,12 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -607,21 +561,15 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
         <v>3</v>
       </c>
     </row>
